--- a/biology/Microbiologie/Eubacteriales/Eubacteriales.xlsx
+++ b/biology/Microbiologie/Eubacteriales/Eubacteriales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eubacteriales – anciennement Clostridiales – sont un ordre de bactéries contenant un mélange d'organismes Gram positifs et Gram négatifs de la classe des Clostridia. Son nom provient d’Eubacterium qui est le genre type de cet ordre.
 </t>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet ordre est décrit dès 1917 par R.E. Buchanan[1]. Il est longtemps distinct de l'ordre des Clostridiales proposé en 1953 par A.R. Prévot[2]. Les deux ordres sont validés en 1980 par leur intégration aux Approved Lists of Bacterial Names publiées dans l'IJSEM[3].
-En 2018, X. Zhang et al. créent la famille des Hungateiclostridiaceae par reclassement de plusieurs espèces de l'ordre des Clostridiales formant un taxon décrit comme monophylétique[4]. L'année suivante, B.J. Tindall rapporte les conséquences de cette création sur la nomenclature d'après les règles de l'ICSP[5]. Zhang et al. ont placé dans le même ordre qu'ils nomment encore « Clostridiales » les espèces Clostridium butyricum – espèce type du genre Clostridium – et Eubacterium limosum – type du genre Eubacterium. Cela conduit à considérer comme des synonymes hétérotypiques les ordres dont ces genres sont eux-mêmes les genres types, à savoir Clostridiales et Eubacteriales (règle n°24a du code de nomenclature bactérienne). Le nom retenu pour le taxon dans lequel ils sont réunis est déterminé par l'ordre de publication des deux noms (règles n°24b(1) et 38 du même code). L'auteur conclut que, Eubacteriales Buchanan 1917 étant antérieur à Clostridiales Prévot 1953, c'est le premier nom qui doit être retenu. Ce raisonnement est validé par la LPSN  (7 décembre 2022)[6] qui présente Eubacteriales comme le nom correct et Clostridiales comme un synonyme.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet ordre est décrit dès 1917 par R.E. Buchanan. Il est longtemps distinct de l'ordre des Clostridiales proposé en 1953 par A.R. Prévot. Les deux ordres sont validés en 1980 par leur intégration aux Approved Lists of Bacterial Names publiées dans l'IJSEM.
+En 2018, X. Zhang et al. créent la famille des Hungateiclostridiaceae par reclassement de plusieurs espèces de l'ordre des Clostridiales formant un taxon décrit comme monophylétique. L'année suivante, B.J. Tindall rapporte les conséquences de cette création sur la nomenclature d'après les règles de l'ICSP. Zhang et al. ont placé dans le même ordre qu'ils nomment encore « Clostridiales » les espèces Clostridium butyricum – espèce type du genre Clostridium – et Eubacterium limosum – type du genre Eubacterium. Cela conduit à considérer comme des synonymes hétérotypiques les ordres dont ces genres sont eux-mêmes les genres types, à savoir Clostridiales et Eubacteriales (règle n°24a du code de nomenclature bactérienne). Le nom retenu pour le taxon dans lequel ils sont réunis est déterminé par l'ordre de publication des deux noms (règles n°24b(1) et 38 du même code). L'auteur conclut que, Eubacteriales Buchanan 1917 étant antérieur à Clostridiales Prévot 1953, c'est le premier nom qui doit être retenu. Ce raisonnement est validé par la LPSN  (7 décembre 2022) qui présente Eubacteriales comme le nom correct et Clostridiales comme un synonyme.
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Familles validement publiées
-Selon la LPSN  (7 décembre 2022)[6] :
+          <t>Familles validement publiées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la LPSN  (7 décembre 2022) :
 Caldicoprobacteraceae Yokoyama et al. 2010
 Christensenellaceae Morotomi et al. 2012
 Clostridiaceae Pribram 1933
@@ -565,8 +584,43 @@
 Syntrophomonadaceae Zhao et al. 1993
 Vallitaleaceae Quéméneur et al. 2019
 Xylanivirgaceae Liu et al. 2020
-Familles en attente de publication valide
-Selon la LPSN  (7 décembre 2022)[6] les familles suivantes sont en attente de publication valide (Ca. signifie Candidatus) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eubacteriales</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eubacteriales</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des familles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Familles en attente de publication valide</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (7 décembre 2022) les familles suivantes sont en attente de publication valide (Ca. signifie Candidatus) :
 « Athiorhodaceae » Molisch 1907
 « Ca. Betainaceae » Jones et al. 2019
 « Endosporaceae » Rahn 1937
